--- a/instance/zyjk/OA/config/oa.xlsx
+++ b/instance/zyjk/OA/config/oa.xlsx
@@ -1,122 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\OA\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="请假申请" sheetId="1" r:id="rId1"/>
-    <sheet name="费用报销申请" sheetId="2" r:id="rId2"/>
-    <sheet name="借款申请" sheetId="3" r:id="rId3"/>
-    <sheet name="外出申请" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="请假申请" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="费用报销申请" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="借款申请" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外出申请" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="出差申请" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">请假申请!$A$1:$I$1</definedName>
     <definedName name="_Toc174523081" localSheetId="0">请假申请!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门领导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景1，请假天数&lt;3天，全同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景3，部门领导不同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景2，请假天数&gt;=3天，全同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景4，人事经理不同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景5，副总不同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景6，总经理不同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡小寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈晓东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒阳阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,47 +76,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -432,151 +380,2552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="4"/>
-    <col min="2" max="2" width="8.6640625" style="2"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="4"/>
+    <col width="8.6640625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.88671875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="3" min="4" max="4"/>
+    <col width="25" customWidth="1" style="2" min="5" max="5"/>
+    <col width="25.21875" customWidth="1" style="4" min="6" max="6"/>
+    <col width="28" customWidth="1" style="4" min="7" max="7"/>
+    <col width="22.77734375" customWidth="1" style="4" min="8" max="8"/>
+    <col width="21.44140625" customWidth="1" style="4" min="9" max="9"/>
+    <col width="8.6640625" customWidth="1" style="4" min="10" max="20"/>
+    <col width="8.6640625" customWidth="1" style="4" min="21" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+    <row r="1" ht="27.6" customHeight="1" s="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>部门领导</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>场景1，请假天数&lt;3天，全同意</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>场景2，请假天数&gt;=3天，全同意</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>场景3，部门领导不同意</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>场景4，人事经理不同意</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>场景5，副总不同意</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>场景6，总经理不同意</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>夏晴</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>苑永涛</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>韩少龙</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>苑永涛</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>产品部</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>张健明</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>曾祥云</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>刘霞</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>王永</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>蒋萍</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>巩义</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>方成</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>柏玲玲</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>交付中心</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>黄忠文</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>隋伟磊</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>千北辰</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>韩群锋</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>姜育</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>曹伟杰</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>高辉</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>戎辉</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>测试部</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>胡小寒</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>研发一部</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>陈桂芬</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>张剑锋</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>贺飞</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>刘凯杰</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>郑东升</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>孙敏</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>李自浩</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>宾梓洋</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>李斌</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>唐坤超</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>曹聪</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>郑伟伟</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>张赵阳</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>禹保禄</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>郭俊成</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>龙珍妮</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>刘万禄</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>梁亚星</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>徐贵阳</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>研发二部</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>黄成晓</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>刘鸿昌</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>杨文庆</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>舒家碧</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>张印</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>朱一航</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>牛东玉</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>徐捷</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>江伟健</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>左奇</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="20" max="20" width="9" style="1"/>
-    <col min="23" max="23" width="9" style="1"/>
-    <col min="26" max="26" width="9" style="1"/>
+    <col width="9" customWidth="1" style="1" min="1" max="2"/>
+    <col width="9" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9" customWidth="1" style="1" min="10" max="11"/>
+    <col width="9" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="17" max="17"/>
+    <col width="9" customWidth="1" style="1" min="20" max="20"/>
+    <col width="9" customWidth="1" style="1" min="23" max="23"/>
+    <col width="9" customWidth="1" style="1" min="26" max="26"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="3" width="9" style="1"/>
+    <col width="9" customWidth="1" style="1" min="2" max="3"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="8.6640625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.88671875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="16.44140625" customWidth="1" style="3" min="4" max="4"/>
+    <col width="25" customWidth="1" style="2" min="5" max="5"/>
+    <col width="25.21875" customWidth="1" style="4" min="6" max="6"/>
+    <col width="28" customWidth="1" style="4" min="7" max="7"/>
+    <col width="22.77734375" customWidth="1" style="4" min="8" max="8"/>
+    <col width="21.44140625" customWidth="1" style="4" min="9" max="9"/>
+    <col width="8.6640625" customWidth="1" style="4" min="10" max="20"/>
+    <col width="8.6640625" customWidth="1" style="4" min="21" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.6" customHeight="1" s="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>部门领导</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>夏晴</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>苑永涛</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>韩少龙</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>苑永涛</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>产品部</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>张健明</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>zeng祥云</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>刘霞</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>王永</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>蒋萍</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>巩义</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>方成</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>柏玲玲</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>交付中心</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>黄忠文</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>隋伟磊</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>无账号</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>千北辰</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>韩群锋</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>姜育</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>曹伟杰</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>高辉</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>戎辉</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>测试部</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>胡小寒</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>研发一部</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>陈桂芬</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>张剑锋</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>贺飞</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>刘凯杰</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>郑东升</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>孙敏</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>李自浩</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>宾梓洋</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>李斌</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>唐坤超</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>曹聪</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>郑伟伟</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>张赵阳</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>禹保禄</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>郭俊成</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>龙珍妮</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>刘万禄</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>梁亚星</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>徐贵阳</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>研发二部</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>wanglei01</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>黄成晓</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>刘鸿昌</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>杨文庆</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>舒家碧</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>张印</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>朱一航</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>牛东玉</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>徐捷</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>江伟健</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>左奇</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="3" width="9" style="1"/>
+    <col width="8.6640625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.88671875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="3" min="4" max="4"/>
+    <col width="25" customWidth="1" style="2" min="5" max="5"/>
+    <col width="25.21875" customWidth="1" style="4" min="6" max="6"/>
+    <col width="28" customWidth="1" style="4" min="7" max="7"/>
+    <col width="22.77734375" customWidth="1" style="4" min="8" max="8"/>
+    <col width="21.44140625" customWidth="1" style="4" min="9" max="9"/>
+    <col width="8.6640625" customWidth="1" style="4" min="10" max="20"/>
+    <col width="8.6640625" customWidth="1" style="4" min="21" max="16384"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="27.6" customHeight="1" s="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>部门领导</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>夏晴</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>苑永涛</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>韩少龙</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>苑永涛</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>产品部</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>张健明</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>曾祥云</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>刘霞</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>王永</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>蒋萍</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>巩义</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>方成</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>柏玲玲</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>董兰强</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>交付中心</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>黄忠文</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>隋伟磊</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>张福军</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>千北辰</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>韩群锋</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>姜育</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>曹伟杰</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>高辉</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>戎辉</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>刘耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>测试部</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>胡小寒</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>研发一部</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>陈桂芬</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>张剑锋</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>贺飞</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>刘凯杰</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>郑东升</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>孙敏</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>李自浩</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>宾梓洋</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>李斌</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>唐坤超</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>曹聪</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>郑伟伟</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>张赵阳</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>禹保禄</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>郭俊成</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>龙珍妮</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>刘万禄</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>梁亚星</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>徐贵阳</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>曲翰林</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>研发二部</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>黄成晓</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>刘鸿昌</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>杨文庆</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>舒家碧</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>张印</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>朱一航</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>牛东玉</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>徐捷</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>江伟健</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>左奇</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>邹永熹</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/instance/zyjk/OA/config/oa.xlsx
+++ b/instance/zyjk/OA/config/oa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="请假申请" sheetId="1" state="visible" r:id="rId1"/>
@@ -413,9 +413,9 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -429,8 +429,8 @@
     <col width="28" customWidth="1" style="4" min="7" max="7"/>
     <col width="22.77734375" customWidth="1" style="4" min="8" max="8"/>
     <col width="21.44140625" customWidth="1" style="4" min="9" max="9"/>
-    <col width="8.6640625" customWidth="1" style="4" min="10" max="33"/>
-    <col width="8.6640625" customWidth="1" style="4" min="34" max="16384"/>
+    <col width="8.6640625" customWidth="1" style="4" min="10" max="37"/>
+    <col width="8.6640625" customWidth="1" style="4" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.6" customHeight="1" s="1">
@@ -496,7 +496,16 @@
           <t>苑永涛</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="8" t="inlineStr">
@@ -526,7 +535,11 @@
           <t>董兰强</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="8" t="inlineStr">
@@ -628,6 +641,11 @@
           <t>wanglei01</t>
         </is>
       </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="8" t="inlineStr">
@@ -753,6 +771,16 @@
           <t>金浩</t>
         </is>
       </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="inlineStr">
@@ -777,6 +805,11 @@
           <t>金浩</t>
         </is>
       </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="inlineStr">
@@ -801,6 +834,16 @@
           <t>wanglei01</t>
         </is>
       </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
@@ -818,6 +861,11 @@
           <t>wanglei01</t>
         </is>
       </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="8" t="inlineStr">
@@ -1133,6 +1181,11 @@
       <c r="C53" s="8" t="inlineStr">
         <is>
           <t>邹永熹</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
         </is>
       </c>
     </row>
@@ -1264,8 +1317,8 @@
     <col width="28" customWidth="1" style="4" min="7" max="7"/>
     <col width="22.77734375" customWidth="1" style="4" min="8" max="8"/>
     <col width="21.44140625" customWidth="1" style="4" min="9" max="9"/>
-    <col width="8.6640625" customWidth="1" style="4" min="10" max="33"/>
-    <col width="8.6640625" customWidth="1" style="4" min="34" max="16384"/>
+    <col width="8.6640625" customWidth="1" style="4" min="10" max="37"/>
+    <col width="8.6640625" customWidth="1" style="4" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.6" customHeight="1" s="1">
@@ -2291,7 +2344,7 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -2307,8 +2360,8 @@
     <col width="28" customWidth="1" style="4" min="7" max="7"/>
     <col width="22.77734375" customWidth="1" style="4" min="8" max="8"/>
     <col width="21.44140625" customWidth="1" style="4" min="9" max="9"/>
-    <col width="8.6640625" customWidth="1" style="4" min="10" max="33"/>
-    <col width="8.6640625" customWidth="1" style="4" min="34" max="16384"/>
+    <col width="8.6640625" customWidth="1" style="4" min="10" max="37"/>
+    <col width="8.6640625" customWidth="1" style="4" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.6" customHeight="1" s="1">

--- a/instance/zyjk/OA/config/oa.xlsx
+++ b/instance/zyjk/OA/config/oa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8736" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8736" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="请假申请单" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="104">
   <si>
     <t>部门</t>
   </si>
@@ -49,10 +49,10 @@
     <t>总经理</t>
   </si>
   <si>
-    <t>场景1，请假天数&lt;3天，全同意</t>
-  </si>
-  <si>
-    <t>场景2，请假天数&gt;=3天，全同意</t>
+    <t>s1，请假天数&lt;3天，全同意</t>
+  </si>
+  <si>
+    <t>s2，请假天数&gt;=3天，全同意</t>
   </si>
   <si>
     <t>场景3，部门领导不同意</t>
@@ -310,19 +310,38 @@
     <t>财务主管</t>
   </si>
   <si>
+    <t>行政人员</t>
+  </si>
+  <si>
     <t>财务经理</t>
   </si>
   <si>
+    <t>出纳</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>李晨曦</t>
+  </si>
+  <si>
+    <t>zangye</t>
+  </si>
+  <si>
+    <t>沈宇</t>
+  </si>
+  <si>
+    <t>戎辉.</t>
+  </si>
+  <si>
     <t>结果</t>
   </si>
   <si>
-    <t>戎辉.</t>
+    <t>臧晔</t>
   </si>
   <si>
     <t>李晨曦</t>
-  </si>
-  <si>
-    <t>臧晔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,9 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -494,6 +510,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,109 +804,109 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="24.77734375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="25" style="25" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28" style="25" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" style="25" customWidth="1"/>
-    <col min="13" max="60" width="8.6640625" style="25" customWidth="1"/>
-    <col min="61" max="16384" width="8.6640625" style="25"/>
+    <col min="1" max="1" width="8.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="25" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="28" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="24" customWidth="1"/>
+    <col min="13" max="65" width="8.6640625" style="24" customWidth="1"/>
+    <col min="66" max="16384" width="8.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -883,543 +914,561 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="D4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="D5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="D6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="D7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="D9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="D10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="D11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="C12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="D13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="D14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="C15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="C16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="C17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="D18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="D19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="D20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="D21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="C22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="D24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="D25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="D26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="25" t="s">
+      <c r="C27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="25" t="s">
+      <c r="B28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="C29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1427,19 +1476,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="27" t="s">
+      <c r="C30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -1447,19 +1496,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="27" t="s">
+      <c r="C31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1467,19 +1516,19 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="27" t="s">
+      <c r="C32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1487,19 +1536,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="27" t="s">
+      <c r="C33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1507,19 +1556,19 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="27" t="s">
+      <c r="C34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -1527,19 +1576,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="27" t="s">
+      <c r="C35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -1547,19 +1596,19 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="27" t="s">
+      <c r="C36" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -1567,19 +1616,19 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="27" t="s">
+      <c r="C37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -1587,19 +1636,19 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="27" t="s">
+      <c r="C38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -1607,19 +1656,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="27" t="s">
+      <c r="C39" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -1627,19 +1676,19 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="27" t="s">
+      <c r="C40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -1647,19 +1696,19 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="27" t="s">
+      <c r="C41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -1667,19 +1716,19 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="27" t="s">
+      <c r="C42" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -1687,19 +1736,19 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="27" t="s">
+      <c r="C43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -1707,19 +1756,19 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="27" t="s">
+      <c r="C44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -1727,19 +1776,19 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="27" t="s">
+      <c r="C45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -1747,19 +1796,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="27" t="s">
+      <c r="C46" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -1767,19 +1816,19 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="27" t="s">
+      <c r="C47" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -1787,22 +1836,22 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="27" t="s">
+      <c r="C48" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -1810,19 +1859,19 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="27" t="s">
+      <c r="D49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -1830,19 +1879,19 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="27" t="s">
+      <c r="D50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -1850,19 +1899,19 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="27" t="s">
+      <c r="D51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -1870,19 +1919,19 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="27" t="s">
+      <c r="D52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -1890,19 +1939,19 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="27" t="s">
+      <c r="D53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -1910,42 +1959,42 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="27" t="s">
+      <c r="D54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="27" t="s">
+      <c r="D55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -1953,19 +2002,19 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="27" t="s">
+      <c r="D56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -1973,19 +2022,19 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="27" t="s">
+      <c r="D57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -1993,19 +2042,19 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="27" t="s">
+      <c r="D58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -2024,39 +2073,39 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="17" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="16" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.21875" style="4" customWidth="1"/>
     <col min="8" max="8" width="28" style="4" customWidth="1"/>
     <col min="9" max="9" width="22.77734375" style="4" customWidth="1"/>
     <col min="10" max="10" width="21.44140625" style="4" customWidth="1"/>
-    <col min="11" max="58" width="8.6640625" style="4" customWidth="1"/>
-    <col min="59" max="16384" width="8.6640625" style="4"/>
+    <col min="11" max="63" width="8.6640625" style="4" customWidth="1"/>
+    <col min="64" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -2068,47 +2117,47 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2116,13 +2165,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2130,13 +2179,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2144,27 +2193,27 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2172,13 +2221,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2186,13 +2235,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2200,13 +2249,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2214,16 +2263,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2231,13 +2280,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2245,13 +2294,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2259,27 +2308,27 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2287,13 +2336,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -2301,27 +2350,27 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2329,13 +2378,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2343,13 +2392,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2357,13 +2406,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -2371,30 +2420,30 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2402,13 +2451,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2416,13 +2465,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2430,30 +2479,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="B28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2461,13 +2510,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -2475,13 +2524,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2489,27 +2538,27 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2517,13 +2566,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -2531,13 +2580,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2545,13 +2594,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -2559,13 +2608,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -2573,13 +2622,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -2587,13 +2636,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -2601,13 +2650,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="C39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -2615,13 +2664,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -2629,13 +2678,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -2643,13 +2692,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2657,13 +2706,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -2671,13 +2720,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -2685,13 +2734,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -2699,13 +2748,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -2713,13 +2762,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -2727,16 +2776,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="14" t="s">
+      <c r="C48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -2744,27 +2793,27 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -2772,13 +2821,13 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -2786,13 +2835,13 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -2800,13 +2849,13 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -2814,13 +2863,13 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -2828,13 +2877,13 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -2842,13 +2891,13 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -2856,13 +2905,13 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -2870,13 +2919,13 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -2895,7 +2944,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2910,70 +2959,70 @@
     <col min="10" max="10" width="28" style="4" customWidth="1"/>
     <col min="11" max="11" width="22.77734375" style="4" customWidth="1"/>
     <col min="12" max="12" width="21.44140625" style="4" customWidth="1"/>
-    <col min="13" max="60" width="8.6640625" style="4" customWidth="1"/>
-    <col min="61" max="16384" width="8.6640625" style="4"/>
+    <col min="13" max="65" width="8.6640625" style="4" customWidth="1"/>
+    <col min="66" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2981,22 +3030,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -3004,22 +3053,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -3028,24 +3077,24 @@
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3056,19 +3105,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3079,22 +3128,22 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -3102,19 +3151,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3125,19 +3174,19 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3148,19 +3197,19 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -3171,19 +3220,19 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -3194,22 +3243,22 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -3218,24 +3267,24 @@
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -3246,19 +3295,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3269,22 +3318,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3292,19 +3341,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3315,19 +3364,19 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -3338,19 +3387,19 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -3359,24 +3408,24 @@
       <c r="H18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -3387,19 +3436,19 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -3410,19 +3459,19 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -3433,22 +3482,22 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -3459,19 +3508,19 @@
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -3488,13 +3537,13 @@
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -3511,13 +3560,13 @@
       <c r="C25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -3534,39 +3583,39 @@
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -3577,22 +3626,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="B28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -3603,19 +3652,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -3626,22 +3675,22 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="C30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -3649,19 +3698,19 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="C31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -3672,19 +3721,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="C32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -3695,19 +3744,19 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="C33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -3718,19 +3767,19 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="C34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -3741,19 +3790,19 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="C35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -3764,19 +3813,19 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="C36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -3787,19 +3836,19 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="C37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -3810,19 +3859,19 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="C38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -3833,19 +3882,19 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="C39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -3856,19 +3905,19 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -3879,19 +3928,19 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="C41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -3902,19 +3951,19 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="C42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -3925,19 +3974,19 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="C43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -3948,19 +3997,19 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="C44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -3971,19 +4020,19 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="C45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -3994,19 +4043,19 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="C46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -4017,19 +4066,19 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="C47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -4038,53 +4087,53 @@
       <c r="H47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="C48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -4095,19 +4144,19 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="D50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -4118,19 +4167,19 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="D51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -4141,19 +4190,19 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="D52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -4164,19 +4213,19 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="D53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -4187,19 +4236,19 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="D54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4210,19 +4259,19 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="D55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4233,19 +4282,19 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="D56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -4256,19 +4305,19 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -4279,19 +4328,19 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="8" t="s">
+      <c r="D58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -4313,636 +4362,1646 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="D6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="D9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="D10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="D13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="D14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="D18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="D19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="D20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="D21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="D23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="D24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="D25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="D26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="C29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="C30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="C31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="C33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="C34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="C35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="C36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="C37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="C38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="C39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="C40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="C41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="C42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="C43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="C44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="C45" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="C46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="C47" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="C48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="D49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+      <c r="D50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+      <c r="D51" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="D52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="D53" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="D54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="D55" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="D56" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="D57" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="2"/>
+      <c r="D58" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4951,14 +6010,1740 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4972,7 +7757,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4980,57 +7765,57 @@
     <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="11"/>
+      <c r="H1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -5038,22 +7823,22 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5070,7 +7855,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5084,7 +7869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/instance/zyjk/OA/config/oa.xlsx
+++ b/instance/zyjk/OA/config/oa.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="106">
   <si>
     <t>部门</t>
   </si>
@@ -341,6 +341,14 @@
   </si>
   <si>
     <t>李晨曦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序测试结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4366,7 +4374,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4384,7 +4392,7 @@
     <col min="11" max="11" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4415,8 +4423,11 @@
       <c r="J1" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -4448,7 +4459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="14" t="s">
         <v>18</v>
@@ -4475,7 +4486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -4504,7 +4515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="14" t="s">
         <v>22</v>
@@ -4531,7 +4542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
         <v>23</v>
@@ -4558,7 +4569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="14" t="s">
         <v>24</v>
@@ -4585,7 +4596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4612,7 +4623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -4639,7 +4650,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -4666,7 +4677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -4693,7 +4704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
@@ -4722,7 +4733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="14" t="s">
         <v>31</v>
@@ -4749,7 +4760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="14" t="s">
         <v>32</v>
@@ -4776,7 +4787,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="14" t="s">
         <v>33</v>
@@ -4803,7 +4814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="14" t="s">
         <v>34</v>
@@ -4830,7 +4841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="14" t="s">
         <v>35</v>
@@ -4857,7 +4868,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="14" t="s">
         <v>36</v>
@@ -4887,7 +4898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="14" t="s">
         <v>37</v>
@@ -4914,7 +4925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="14" t="s">
         <v>38</v>
@@ -4941,7 +4952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="14" t="s">
         <v>39</v>
@@ -4968,7 +4979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
         <v>100</v>
@@ -4995,7 +5006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>44</v>
@@ -5051,7 +5062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16" t="s">
         <v>45</v>
@@ -5078,7 +5089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16" t="s">
         <v>46</v>
@@ -5105,7 +5116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="14" t="s">
         <v>43</v>
@@ -5134,8 +5145,11 @@
       <c r="J27" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
@@ -5164,7 +5178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="14" t="s">
         <v>49</v>
@@ -5191,7 +5205,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="14" t="s">
         <v>50</v>
@@ -5218,7 +5232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="14" t="s">
         <v>51</v>
@@ -5245,7 +5259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="14" t="s">
         <v>52</v>
@@ -6001,7 +6015,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/instance/zyjk/OA/config/oa.xlsx
+++ b/instance/zyjk/OA/config/oa.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="119">
   <si>
     <t>部门</t>
   </si>
@@ -365,6 +365,34 @@
   </si>
   <si>
     <t>臧晔</t>
+  </si>
+  <si>
+    <t>简育婧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序上，只有审批权限，没有发起权限。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7803,7 +7831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7815,7 +7843,8 @@
     <col min="6" max="6" width="31.21875" style="33" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="32" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="32" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="33" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
@@ -7844,6 +7873,9 @@
       <c r="H1" s="18" t="s">
         <v>105</v>
       </c>
+      <c r="I1" s="33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -7867,7 +7899,12 @@
       <c r="G2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -7891,7 +7928,9 @@
       <c r="G3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="33" t="s">
+        <v>115</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,7 +7938,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
@@ -7914,9 +7953,11 @@
         <v>110</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="33"/>
+        <v>117</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
